--- a/1. Prijedlog projekta/GameStars-StudijaIzvedivosti.xlsx
+++ b/1. Prijedlog projekta/GameStars-StudijaIzvedivosti.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Desktop\Andrija programer\PIS\1. Prijedlog projekta\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -923,45 +923,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -986,6 +947,45 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1304,10 +1304,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="57"/>
       <c r="C1" s="10" t="s">
         <v>9</v>
       </c>
@@ -1337,7 +1337,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1372,7 +1372,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
@@ -1405,7 +1405,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
@@ -1438,7 +1438,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
@@ -1471,10 +1471,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="34">
         <f>AVERAGE(C2:C5)</f>
         <v>2</v>
@@ -1513,7 +1513,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="65" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1548,7 +1548,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="8" t="s">
         <v>2</v>
       </c>
@@ -1581,7 +1581,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="8" t="s">
         <v>3</v>
       </c>
@@ -1614,7 +1614,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="9" t="s">
         <v>4</v>
       </c>
@@ -1647,10 +1647,10 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="48"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="34">
         <f>AVERAGE(C7:C10)</f>
         <v>2.75</v>
@@ -1689,7 +1689,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="65" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1724,7 +1724,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="8" t="s">
         <v>2</v>
       </c>
@@ -1757,7 +1757,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="8" t="s">
         <v>3</v>
       </c>
@@ -1790,7 +1790,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="9" t="s">
         <v>4</v>
       </c>
@@ -1823,10 +1823,10 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="50"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="34">
         <f>AVERAGE(C12:C15)</f>
         <v>1.25</v>
@@ -1878,7 +1878,7 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="58" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1899,7 +1899,7 @@
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="8" t="s">
         <v>5</v>
       </c>
@@ -1922,7 +1922,7 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="46"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="9" t="s">
         <v>7</v>
       </c>
@@ -1962,8 +1962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1985,7 +1985,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="42" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="37" t="s">
@@ -1994,12 +1994,12 @@
       <c r="C4" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="43" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="44" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="15">
@@ -2014,7 +2014,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="44" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15">
@@ -2029,7 +2029,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="44" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="15">
@@ -2044,7 +2044,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="44" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="15">
@@ -2059,7 +2059,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="44" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="15">
@@ -2074,7 +2074,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="45" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="23">
@@ -2089,7 +2089,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="48" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="6"/>
@@ -2097,7 +2097,7 @@
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="42" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="37" t="s">
@@ -2106,12 +2106,12 @@
       <c r="C13" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="43" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="44" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="15">
@@ -2126,7 +2126,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="49" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="15">
@@ -2140,7 +2140,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="50" t="s">
         <v>46</v>
       </c>
       <c r="B16" s="23">
@@ -2176,12 +2176,12 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="65">
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="52">
         <v>3000</v>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="67" t="s">
+      <c r="A25" s="54" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="37" t="s">
@@ -2226,18 +2226,18 @@
       <c r="C25" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="56" t="s">
+      <c r="D25" s="43" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="66">
-        <v>3</v>
-      </c>
-      <c r="C26" s="66">
+      <c r="B26" s="53">
+        <v>3</v>
+      </c>
+      <c r="C26" s="53">
         <v>10000</v>
       </c>
       <c r="D26" s="4">
@@ -2246,10 +2246,10 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="66">
+      <c r="B27" s="53">
         <v>5</v>
       </c>
       <c r="C27" s="15">
@@ -2261,10 +2261,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="66">
+      <c r="B28" s="53">
         <v>3</v>
       </c>
       <c r="C28" s="15">
@@ -2275,10 +2275,10 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="66">
+      <c r="B29" s="53">
         <v>2</v>
       </c>
       <c r="C29" s="15">
@@ -2289,7 +2289,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B30" s="15">
@@ -2304,7 +2304,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="49" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="15">
@@ -2318,7 +2318,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="44" t="s">
         <v>55</v>
       </c>
       <c r="B32" s="15">
@@ -2332,7 +2332,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="63" t="s">
+      <c r="A33" s="50" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="23">
@@ -2348,11 +2348,11 @@
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="54"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="68"/>
       <c r="D35" s="40">
         <f>SUM(D1:D34)</f>
         <v>168100</v>
@@ -2380,6 +2380,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Komentar xmlns="d34a4129-52ec-4ee5-bc77-23d8e5f94cfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101007AFC1106DB8A04488E866355A5CEB218" ma:contentTypeVersion="2" ma:contentTypeDescription="Stvaranje novog dokumenta." ma:contentTypeScope="" ma:versionID="cf5653b097a0dc1db313e4d0258d9f51">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d34a4129-52ec-4ee5-bc77-23d8e5f94cfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c81d14dc3ad95f274f0f0999b8e60d5" ns2:_="">
     <xsd:import namespace="d34a4129-52ec-4ee5-bc77-23d8e5f94cfd"/>
@@ -2439,24 +2456,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD7DA977-5768-4922-8197-65E8CF2221D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="d34a4129-52ec-4ee5-bc77-23d8e5f94cfd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Komentar xmlns="d34a4129-52ec-4ee5-bc77-23d8e5f94cfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5758EF3-F7D3-4420-8E13-AF1AC80FD17D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{033D9B50-45AF-432E-87DC-2944701B1988}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2471,27 +2494,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5758EF3-F7D3-4420-8E13-AF1AC80FD17D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD7DA977-5768-4922-8197-65E8CF2221D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="d34a4129-52ec-4ee5-bc77-23d8e5f94cfd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>